--- a/mf-intelligence/data/processed/quant/quant_Multi_Asset_Allocation_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Multi_Asset_Allocation_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,17 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Jan_2026</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nov_2025</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Oct_2025</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INE237A01028</t>
+          <t>INE040A01034</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kotak Mahindra Bank Limited</t>
+          <t>HDFC Bank Limited</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8.523743</v>
+        <v>9.305626</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.382281000000001</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.523743</v>
+        <v>0.9233449999999994</v>
       </c>
       <c r="H2" t="n">
-        <v>8.523743</v>
+        <v>9.305626</v>
       </c>
     </row>
     <row r="3">
@@ -524,30 +524,30 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>9.26423</v>
+      </c>
+      <c r="E3" t="n">
         <v>8.473186999999999</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>2.94592</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
-        <v>5.527266999999999</v>
+        <v>0.7910430000000002</v>
       </c>
       <c r="H3" t="n">
-        <v>8.473186999999999</v>
+        <v>6.318309999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INE040A01034</t>
+          <t>INE237A01036</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HDFC Bank Limited</t>
+          <t>Kotak Mahindra Bank Limited</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8.382281000000001</v>
+        <v>7.354324</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -565,10 +565,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>8.382281000000001</v>
+        <v>7.354324</v>
       </c>
       <c r="H4" t="n">
-        <v>8.382281000000001</v>
+        <v>7.354324</v>
       </c>
     </row>
     <row r="5">
@@ -588,19 +588,19 @@
         </is>
       </c>
       <c r="D5" t="n">
+        <v>5.029332</v>
+      </c>
+      <c r="E5" t="n">
         <v>5.541729</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>3.065313</v>
       </c>
-      <c r="F5" t="n">
-        <v>3.025798</v>
-      </c>
       <c r="G5" t="n">
-        <v>2.476416</v>
+        <v>-0.512397</v>
       </c>
       <c r="H5" t="n">
-        <v>2.515931</v>
+        <v>1.964019</v>
       </c>
     </row>
     <row r="6">
@@ -620,30 +620,30 @@
         </is>
       </c>
       <c r="D6" t="n">
+        <v>4.362969</v>
+      </c>
+      <c r="E6" t="n">
         <v>4.973663</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>4.973663</v>
+        <v>-0.6106940000000005</v>
       </c>
       <c r="H6" t="n">
-        <v>4.973663</v>
+        <v>4.362969</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INE0BS701011</t>
+          <t>INE075A01022</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Premier Energies Limited</t>
+          <t>Wipro Ltd</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,30 +652,30 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4.225607</v>
+        <v>4.315831</v>
       </c>
       <c r="E7" t="n">
-        <v>5.191142</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>5.995882</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.965535</v>
+        <v>4.315831</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.770275</v>
+        <v>4.315831</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>INE758E01017</t>
+          <t>INE0BS701011</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jio Financial Services Limited</t>
+          <t>Premier Energies Limited</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -684,30 +684,30 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3.345709</v>
+        <v>3.362745</v>
       </c>
       <c r="E8" t="n">
-        <v>3.682917</v>
+        <v>4.225607</v>
       </c>
       <c r="F8" t="n">
-        <v>3.804074</v>
+        <v>5.191142</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3372080000000004</v>
+        <v>-0.8628620000000002</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.4583650000000001</v>
+        <v>-1.828397</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INE364U01010</t>
+          <t>INE406A01037</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Adani Green Energy Limited</t>
+          <t>Aurobindo Pharma Limited</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.854445</v>
+        <v>2.966447</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.854445</v>
+        <v>2.966447</v>
       </c>
       <c r="H9" t="n">
-        <v>2.854445</v>
+        <v>2.966447</v>
       </c>
     </row>
     <row r="10">
@@ -748,30 +748,30 @@
         </is>
       </c>
       <c r="D10" t="n">
+        <v>2.387782</v>
+      </c>
+      <c r="E10" t="n">
         <v>2.724474</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2.724474</v>
+        <v>-0.3366919999999998</v>
       </c>
       <c r="H10" t="n">
-        <v>2.724474</v>
+        <v>2.387782</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INE154A01025</t>
+          <t>INE364U01010</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ITC Limited</t>
+          <t>Adani Green Energy Limited</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -780,30 +780,30 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.59661</v>
+        <v>2.231143</v>
       </c>
       <c r="E11" t="n">
-        <v>2.76184</v>
+        <v>2.854445</v>
       </c>
       <c r="F11" t="n">
-        <v>2.96051</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1652299999999998</v>
+        <v>-0.6233020000000002</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.3639000000000001</v>
+        <v>2.231143</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INE556F16AY0</t>
+          <t>INE018A01030</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SIDBI CD 13-Jan-2026</t>
+          <t>Larsen &amp; Toubro Limited</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -812,30 +812,30 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.250632</v>
+        <v>2.128037</v>
       </c>
       <c r="E12" t="n">
-        <v>2.37337</v>
+        <v>1.476168</v>
       </c>
       <c r="F12" t="n">
-        <v>2.435688</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.122738</v>
+        <v>0.651869</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.1850559999999999</v>
+        <v>2.128037</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INE676A01027</t>
+          <t>INE261F16AE9</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Black Box Limited</t>
+          <t>NABARD CD 19-Jan-2027</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -844,30 +844,30 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.757758</v>
+        <v>1.962753</v>
       </c>
       <c r="E13" t="n">
-        <v>1.806139</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.04838100000000001</v>
+        <v>1.962753</v>
       </c>
       <c r="H13" t="n">
-        <v>1.757758</v>
+        <v>1.962753</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INE514E16CN1</t>
+          <t>INE154A01025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>EXIM Bank CD 11-Nov-2026</t>
+          <t>ITC Limited</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -876,30 +876,30 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.600926</v>
+        <v>1.932332</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2.59661</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.76184</v>
       </c>
       <c r="G14" t="n">
-        <v>1.600926</v>
+        <v>-0.6642780000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>1.600926</v>
+        <v>-0.8295079999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE018A01030</t>
+          <t>INE081A01020</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Larsen &amp; Toubro Limited</t>
+          <t>Tata Steel Limited</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -908,30 +908,30 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.476168</v>
+        <v>1.552077</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.7772790000000001</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.476168</v>
+        <v>0.7747979999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>1.476168</v>
+        <v>1.552077</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE781S01027</t>
+          <t>INE676A01027</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ventive Hospitality Limited</t>
+          <t>Black Box Limited</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -940,30 +940,30 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.364569</v>
+        <v>1.530466</v>
       </c>
       <c r="E16" t="n">
-        <v>1.381006</v>
+        <v>1.757758</v>
       </c>
       <c r="F16" t="n">
-        <v>1.444665</v>
+        <v>1.806139</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.01643700000000003</v>
+        <v>-0.2272919999999998</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.08009600000000017</v>
+        <v>-0.2756729999999998</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE271C01023</t>
+          <t>INE514E16CN1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DLF Limited</t>
+          <t>EXIM Bank CD 11-Nov-2026</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -972,30 +972,30 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.242889</v>
+        <v>1.491614</v>
       </c>
       <c r="E17" t="n">
-        <v>1.387293</v>
+        <v>1.600926</v>
       </c>
       <c r="F17" t="n">
-        <v>1.494658</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1444040000000002</v>
+        <v>-0.1093120000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.2517690000000001</v>
+        <v>1.491614</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE484J01027</t>
+          <t>INE397D01024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Godrej Properties Limited</t>
+          <t>Bharti Airtel Limited</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1004,30 +1004,30 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.822896</v>
+        <v>1.450806</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.780396</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.822896</v>
+        <v>0.6704100000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0.822896</v>
+        <v>1.450806</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE918I01026</t>
+          <t>INE155A01022</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bajaj Finserv Ltd.</t>
+          <t>Tata Motors Passenger Vehicles Limited</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1036,30 +1036,30 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.793538</v>
+        <v>1.425685</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.732985</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.793538</v>
+        <v>0.6927000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0.793538</v>
+        <v>1.425685</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INE200M01039</t>
+          <t>INE781S01027</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Varun Beverages Limited</t>
+          <t>Ventive Hospitality Limited</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1068,30 +1068,30 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.781693</v>
+        <v>1.242275</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.364569</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.381006</v>
       </c>
       <c r="G20" t="n">
-        <v>0.781693</v>
+        <v>-0.1222939999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0.781693</v>
+        <v>-0.1387309999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INE397D01024</t>
+          <t>INE271C01023</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bharti Airtel Limited</t>
+          <t>DLF Limited</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1100,30 +1100,30 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.780396</v>
+        <v>1.070117</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1.242889</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1.387293</v>
       </c>
       <c r="G21" t="n">
-        <v>0.780396</v>
+        <v>-0.1727719999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0.780396</v>
+        <v>-0.3171760000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>INE081A01020</t>
+          <t>INE205A01025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tata Steel Limited</t>
+          <t>Vedanta Limited</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1132,30 +1132,30 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.7772790000000001</v>
+        <v>0.809566</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.771182</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7772790000000001</v>
+        <v>0.03838399999999997</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7772790000000001</v>
+        <v>0.809566</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>INE205A01025</t>
+          <t>INE918I01026</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Vedanta Limited</t>
+          <t>Bajaj Finserv Ltd.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1164,30 +1164,30 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.771182</v>
+        <v>0.755288</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.793538</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.771182</v>
+        <v>-0.03825000000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0.771182</v>
+        <v>0.755288</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>INE376G01013</t>
+          <t>INE200M01039</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Biocon Ltd</t>
+          <t>Varun Beverages Limited</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1196,30 +1196,30 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.748386</v>
+        <v>0.700078</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.781693</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.748386</v>
+        <v>-0.08161499999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0.748386</v>
+        <v>0.700078</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INE155A01022</t>
+          <t>INE376G01013</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tata Motors Passenger Vehicles Limited</t>
+          <t>Biocon Ltd</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1228,30 +1228,30 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.732985</v>
+        <v>0.64877</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.748386</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.732985</v>
+        <v>-0.09961600000000004</v>
       </c>
       <c r="H25" t="n">
-        <v>0.732985</v>
+        <v>0.64877</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INE549H01021</t>
+          <t>INE1JAR25012</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Anand Rathi Share &amp; Stock Brokers Ltd</t>
+          <t>Knowledge Realty Trust</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1260,30 +1260,30 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.689252</v>
+        <v>0.644485</v>
       </c>
       <c r="E26" t="n">
-        <v>0.804961</v>
+        <v>0.68784</v>
       </c>
       <c r="F26" t="n">
-        <v>0.608492</v>
+        <v>0.711893</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.1157090000000001</v>
+        <v>-0.04335500000000003</v>
       </c>
       <c r="H26" t="n">
-        <v>0.08075999999999994</v>
+        <v>-0.06740800000000002</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INE1JAR25012</t>
+          <t>INE484J01027</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Knowledge Realty Trust</t>
+          <t>Godrej Properties Limited</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1292,30 +1292,30 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.68784</v>
+        <v>0.602641</v>
       </c>
       <c r="E27" t="n">
-        <v>0.711893</v>
+        <v>0.822896</v>
       </c>
       <c r="F27" t="n">
-        <v>0.711874</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.02405299999999999</v>
+        <v>-0.220255</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.024034</v>
+        <v>0.602641</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>INE752E01010</t>
+          <t>INE549H01021</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Power Grid Corporation of India Limited</t>
+          <t>Anand Rathi Share &amp; Stock Brokers Ltd</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1324,30 +1324,30 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.5997479999999999</v>
+        <v>0.58982</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.689252</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.804961</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5997479999999999</v>
+        <v>-0.09943199999999996</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5997479999999999</v>
+        <v>-0.215141</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>INE245A01021</t>
+          <t>INE752E01010</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tata Power Company Limited</t>
+          <t>Power Grid Corporation of India Limited</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1356,19 +1356,19 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.58974</v>
+        <v>0.541238</v>
       </c>
       <c r="E29" t="n">
-        <v>2.374302</v>
+        <v>0.5997479999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>2.540473</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.784562</v>
+        <v>-0.05850999999999995</v>
       </c>
       <c r="H29" t="n">
-        <v>-1.950733</v>
+        <v>0.541238</v>
       </c>
     </row>
     <row r="30">
@@ -1388,19 +1388,19 @@
         </is>
       </c>
       <c r="D30" t="n">
+        <v>0.300465</v>
+      </c>
+      <c r="E30" t="n">
         <v>0.321699</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>0.339716</v>
       </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
       <c r="G30" t="n">
-        <v>-0.01801700000000001</v>
+        <v>-0.02123400000000003</v>
       </c>
       <c r="H30" t="n">
-        <v>0.321699</v>
+        <v>-0.03925100000000004</v>
       </c>
     </row>
     <row r="31">
@@ -1420,30 +1420,30 @@
         </is>
       </c>
       <c r="D31" t="n">
+        <v>0.199234</v>
+      </c>
+      <c r="E31" t="n">
         <v>0.213812</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>0.225869</v>
       </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
       <c r="G31" t="n">
-        <v>-0.01205699999999998</v>
+        <v>-0.01457800000000001</v>
       </c>
       <c r="H31" t="n">
-        <v>0.213812</v>
+        <v>-0.02663499999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>INE002A01018</t>
+          <t>INE062A01020</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Reliance Industries Limited</t>
+          <t>State Bank of India</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1452,30 +1452,30 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.148326</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>7.226046</v>
       </c>
       <c r="G32" t="n">
-        <v>0.148326</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.148326</v>
+        <v>-7.226046</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>INE467B01029</t>
+          <t>INE0NHL23019</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Limited</t>
+          <t>Indus Infra Trust</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1487,27 +1487,27 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>2.863599</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>2.480624</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.863599</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>-2.480624</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>INE202B01038</t>
+          <t>INE758E01017</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Piramal Finance Ltd</t>
+          <t>Jio Financial Services Limited</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1519,27 +1519,27 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>3.345709</v>
       </c>
       <c r="F34" t="n">
-        <v>0.809466</v>
+        <v>3.682917</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-3.345709</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.809466</v>
+        <v>-3.682917</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>INE0Z8Z23013</t>
+          <t>INE245A01021</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Capital Infra Trust InvIT</t>
+          <t>Tata Power Company Limited</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1551,27 +1551,27 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.921096</v>
+        <v>0.58974</v>
       </c>
       <c r="F35" t="n">
-        <v>0.952275</v>
+        <v>2.374302</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.921096</v>
+        <v>-0.58974</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.952275</v>
+        <v>-2.374302</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>INE0NHL23019</t>
+          <t>INE0Z8Z23013</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Indus Infra Trust</t>
+          <t>Capital Infra Trust InvIT</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1583,27 +1583,27 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>2.480624</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>2.595613</v>
+        <v>0.921096</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.480624</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>-2.595613</v>
+        <v>-0.921096</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>INE0J1Y01017</t>
+          <t>INE556F16AY0</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Life Insurance Corporation Of India</t>
+          <t>SIDBI CD 13-Jan-2026</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1615,27 +1615,27 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2.250632</v>
       </c>
       <c r="F37" t="n">
-        <v>4.188516</v>
+        <v>2.37337</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>-2.250632</v>
       </c>
       <c r="H37" t="n">
-        <v>-4.188516</v>
+        <v>-2.37337</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>INE062A01020</t>
+          <t>INE467B01029</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>State Bank of India</t>
+          <t>Tata Consultancy Services Limited</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1647,27 +1647,27 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>7.226046</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>9.18807</v>
+        <v>2.863599</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.226046</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-9.18807</v>
+        <v>-2.863599</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>INE030A01027</t>
+          <t>INE237A01028</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Hindustan Unilever Limited</t>
+          <t>Kotak Mahindra Bank Limited</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1679,16 +1679,48 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>8.523743</v>
       </c>
       <c r="F39" t="n">
-        <v>1.61351</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>-8.523743</v>
       </c>
       <c r="H39" t="n">
-        <v>-1.61351</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>INE002A01018</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Reliance Industries Limited</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.148326</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.148326</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Multi_Asset_Allocation_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Multi_Asset_Allocation_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Nov_2025</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Oct_2025</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -491,19 +496,24 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>9.305626</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>8.382281000000001</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.9233449999999994</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>9.305626</v>
       </c>
     </row>
@@ -523,20 +533,25 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>9.26423</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>8.473186999999999</v>
       </c>
-      <c r="F3" t="n">
-        <v>2.94592</v>
-      </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.7910430000000002</v>
       </c>
-      <c r="H3" t="n">
-        <v>6.318309999999999</v>
+      <c r="I3" t="n">
+        <v>9.26423</v>
       </c>
     </row>
     <row r="4">
@@ -555,21 +570,26 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>7.354324</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7.354324</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>7.354324</v>
       </c>
+      <c r="I4" t="n">
+        <v>7.354324</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -587,20 +607,25 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>5.029332</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>5.541729</v>
       </c>
-      <c r="F5" t="n">
-        <v>3.065313</v>
-      </c>
       <c r="G5" t="n">
+        <v>3.025798</v>
+      </c>
+      <c r="H5" t="n">
         <v>-0.512397</v>
       </c>
-      <c r="H5" t="n">
-        <v>1.964019</v>
+      <c r="I5" t="n">
+        <v>2.003534</v>
       </c>
     </row>
     <row r="6">
@@ -619,19 +644,24 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>4.362969</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>4.973663</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>-0.6106940000000005</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>4.362969</v>
       </c>
     </row>
@@ -651,21 +681,26 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>4.315831</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4.315831</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>4.315831</v>
       </c>
+      <c r="I7" t="n">
+        <v>4.315831</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -683,20 +718,25 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>3.362745</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>4.225607</v>
       </c>
-      <c r="F8" t="n">
-        <v>5.191142</v>
-      </c>
       <c r="G8" t="n">
+        <v>5.995882</v>
+      </c>
+      <c r="H8" t="n">
         <v>-0.8628620000000002</v>
       </c>
-      <c r="H8" t="n">
-        <v>-1.828397</v>
+      <c r="I8" t="n">
+        <v>-2.633137</v>
       </c>
     </row>
     <row r="9">
@@ -715,21 +755,26 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>2.966447</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.966447</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>2.966447</v>
       </c>
+      <c r="I9" t="n">
+        <v>2.966447</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -747,19 +792,24 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>2.387782</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>2.724474</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>-0.3366919999999998</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>2.387782</v>
       </c>
     </row>
@@ -779,19 +829,24 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>2.231143</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>2.854445</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>-0.6233020000000002</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>2.231143</v>
       </c>
     </row>
@@ -811,31 +866,36 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>2.128037</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>1.476168</v>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.651869</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>2.128037</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INE261F16AE9</t>
+          <t>INE154A01025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NABARD CD 19-Jan-2027</t>
+          <t>ITC Limited</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -843,31 +903,36 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>1.962753</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.932332</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2.59661</v>
       </c>
       <c r="G13" t="n">
-        <v>1.962753</v>
+        <v>2.96051</v>
       </c>
       <c r="H13" t="n">
-        <v>1.962753</v>
+        <v>-0.6642780000000001</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-1.028178</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INE154A01025</t>
+          <t>INE081A01020</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ITC Limited</t>
+          <t>Tata Steel Limited</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -875,31 +940,36 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>1.932332</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
       </c>
       <c r="E14" t="n">
-        <v>2.59661</v>
+        <v>1.552077</v>
       </c>
       <c r="F14" t="n">
-        <v>2.76184</v>
+        <v>0.7772790000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.6642780000000001</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.8295079999999999</v>
+        <v>0.7747979999999999</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.552077</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE081A01020</t>
+          <t>INE676A01027</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tata Steel Limited</t>
+          <t>Black Box Limited</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -907,31 +977,36 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>1.552077</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
       </c>
       <c r="E15" t="n">
-        <v>0.7772790000000001</v>
+        <v>1.530466</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1.757758</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7747979999999999</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1.552077</v>
+        <v>-0.2272919999999998</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.530466</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE676A01027</t>
+          <t>INE397D01024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Black Box Limited</t>
+          <t>Bharti Airtel Limited</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -939,31 +1014,36 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>1.530466</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
       </c>
       <c r="E16" t="n">
-        <v>1.757758</v>
+        <v>1.450806</v>
       </c>
       <c r="F16" t="n">
-        <v>1.806139</v>
+        <v>0.780396</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.2272919999999998</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.2756729999999998</v>
+        <v>0.6704100000000001</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.450806</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE514E16CN1</t>
+          <t>INE155A01022</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EXIM Bank CD 11-Nov-2026</t>
+          <t>Tata Motors Passenger Vehicles Limited</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -971,31 +1051,36 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>1.491614</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
       </c>
       <c r="E17" t="n">
-        <v>1.600926</v>
+        <v>1.425685</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.732985</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1093120000000001</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.491614</v>
+        <v>0.6927000000000001</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.425685</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE397D01024</t>
+          <t>INE781S01027</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bharti Airtel Limited</t>
+          <t>Ventive Hospitality Limited</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1003,31 +1088,36 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>1.450806</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
       </c>
       <c r="E18" t="n">
-        <v>0.780396</v>
+        <v>1.242275</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.364569</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6704100000000001</v>
+        <v>1.444665</v>
       </c>
       <c r="H18" t="n">
-        <v>1.450806</v>
+        <v>-0.1222939999999999</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.2023900000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE155A01022</t>
+          <t>INE271C01023</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tata Motors Passenger Vehicles Limited</t>
+          <t>DLF Limited</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1035,31 +1125,36 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>1.425685</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
       </c>
       <c r="E19" t="n">
-        <v>0.732985</v>
+        <v>1.070117</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.242889</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6927000000000001</v>
+        <v>1.494658</v>
       </c>
       <c r="H19" t="n">
-        <v>1.425685</v>
+        <v>-0.1727719999999999</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-0.4245410000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INE781S01027</t>
+          <t>INE205A01025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ventive Hospitality Limited</t>
+          <t>Vedanta Limited</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1067,31 +1162,36 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>1.242275</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
       </c>
       <c r="E20" t="n">
-        <v>1.364569</v>
+        <v>0.809566</v>
       </c>
       <c r="F20" t="n">
-        <v>1.381006</v>
+        <v>0.771182</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1222939999999999</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.1387309999999999</v>
+        <v>0.03838399999999997</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.809566</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INE271C01023</t>
+          <t>INE918I01026</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DLF Limited</t>
+          <t>Bajaj Finserv Ltd.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1099,31 +1199,36 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>1.070117</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
       </c>
       <c r="E21" t="n">
-        <v>1.242889</v>
+        <v>0.755288</v>
       </c>
       <c r="F21" t="n">
-        <v>1.387293</v>
+        <v>0.793538</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1727719999999999</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.3171760000000001</v>
+        <v>-0.03825000000000001</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.755288</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>INE205A01025</t>
+          <t>INE200M01039</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Vedanta Limited</t>
+          <t>Varun Beverages Limited</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1131,31 +1236,36 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>0.809566</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
       </c>
       <c r="E22" t="n">
-        <v>0.771182</v>
+        <v>0.700078</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.781693</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03838399999999997</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.809566</v>
+        <v>-0.08161499999999999</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.700078</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>INE918I01026</t>
+          <t>INE376G01013</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Bajaj Finserv Ltd.</t>
+          <t>Biocon Ltd</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1163,31 +1273,36 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>0.755288</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
       </c>
       <c r="E23" t="n">
-        <v>0.793538</v>
+        <v>0.64877</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.748386</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.03825000000000001</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.755288</v>
+        <v>-0.09961600000000004</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.64877</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>INE200M01039</t>
+          <t>INE1JAR25012</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Varun Beverages Limited</t>
+          <t>Knowledge Realty Trust</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1195,31 +1310,36 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>0.700078</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
       </c>
       <c r="E24" t="n">
-        <v>0.781693</v>
+        <v>0.644485</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.68784</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.08161499999999999</v>
+        <v>0.711874</v>
       </c>
       <c r="H24" t="n">
-        <v>0.700078</v>
+        <v>-0.04335500000000003</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-0.06738900000000003</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INE376G01013</t>
+          <t>INE484J01027</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Biocon Ltd</t>
+          <t>Godrej Properties Limited</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1227,31 +1347,36 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>0.64877</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
       </c>
       <c r="E25" t="n">
-        <v>0.748386</v>
+        <v>0.602641</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.822896</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.09961600000000004</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.64877</v>
+        <v>-0.220255</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.602641</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INE1JAR25012</t>
+          <t>INE549H01021</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Knowledge Realty Trust</t>
+          <t>Anand Rathi Share &amp; Stock Brokers Ltd</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1259,31 +1384,36 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>0.644485</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
       </c>
       <c r="E26" t="n">
-        <v>0.68784</v>
+        <v>0.58982</v>
       </c>
       <c r="F26" t="n">
-        <v>0.711893</v>
+        <v>0.689252</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.04335500000000003</v>
+        <v>0.608492</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.06740800000000002</v>
+        <v>-0.09943199999999996</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-0.01867200000000002</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INE484J01027</t>
+          <t>INE752E01010</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Godrej Properties Limited</t>
+          <t>Power Grid Corporation of India Limited</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1291,31 +1421,36 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>0.602641</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
       </c>
       <c r="E27" t="n">
-        <v>0.822896</v>
+        <v>0.541238</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>0.5997479999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.220255</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.602641</v>
+        <v>-0.05850999999999995</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.541238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>INE549H01021</t>
+          <t>INE237A01028</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Anand Rathi Share &amp; Stock Brokers Ltd</t>
+          <t>Kotak Mahindra Bank Limited</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1323,31 +1458,36 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>0.58982</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E28" t="n">
-        <v>0.689252</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.804961</v>
+        <v>8.523743</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.09943199999999996</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.215141</v>
+        <v>-8.523743</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>INE752E01010</t>
+          <t>INE245A01021</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Power Grid Corporation of India Limited</t>
+          <t>Tata Power Company Limited</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1355,31 +1495,36 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>0.541238</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E29" t="n">
-        <v>0.5997479999999999</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.58974</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.05850999999999995</v>
+        <v>2.540473</v>
       </c>
       <c r="H29" t="n">
-        <v>0.541238</v>
+        <v>-0.58974</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-2.540473</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>INE414G14UT3</t>
+          <t>INE202B01038</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Muthoot Finance Ltd CP 08-Sep-2026</t>
+          <t>Piramal Finance Ltd</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1387,31 +1532,36 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>0.300465</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E30" t="n">
-        <v>0.321699</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.339716</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.02123400000000003</v>
+        <v>0.809466</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.03925100000000004</v>
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-0.809466</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>INE556F16BN1</t>
+          <t>INE0Z8Z23013</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SIDBI CD 27-Oct-2026</t>
+          <t>Capital Infra Trust InvIT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1419,31 +1569,36 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>0.199234</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E31" t="n">
-        <v>0.213812</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.225869</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.01457800000000001</v>
+        <v>0.952275</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.02663499999999999</v>
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.952275</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>INE062A01020</t>
+          <t>INE0NHL23019</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>State Bank of India</t>
+          <t>Indus Infra Trust</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1451,31 +1606,36 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>7.226046</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2.595613</v>
       </c>
       <c r="H32" t="n">
-        <v>-7.226046</v>
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-2.595613</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>INE0NHL23019</t>
+          <t>INE0J1Y01017</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Indus Infra Trust</t>
+          <t>Life Insurance Corporation Of India</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1483,20 +1643,25 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>0</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>2.480624</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>4.188516</v>
       </c>
       <c r="H33" t="n">
-        <v>-2.480624</v>
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-4.188516</v>
       </c>
     </row>
     <row r="34">
@@ -1515,31 +1680,36 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>0</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>3.345709</v>
       </c>
-      <c r="F34" t="n">
-        <v>3.682917</v>
-      </c>
       <c r="G34" t="n">
+        <v>3.804074</v>
+      </c>
+      <c r="H34" t="n">
         <v>-3.345709</v>
       </c>
-      <c r="H34" t="n">
-        <v>-3.682917</v>
+      <c r="I34" t="n">
+        <v>-3.804074</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>INE245A01021</t>
+          <t>INE062A01020</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tata Power Company Limited</t>
+          <t>State Bank of India</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1547,31 +1717,36 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E35" t="n">
-        <v>0.58974</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2.374302</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.58974</v>
+        <v>9.18807</v>
       </c>
       <c r="H35" t="n">
-        <v>-2.374302</v>
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-9.18807</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>INE0Z8Z23013</t>
+          <t>INE030A01027</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Capital Infra Trust InvIT</t>
+          <t>Hindustan Unilever Limited</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1579,31 +1754,36 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>0</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.921096</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1.61351</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.921096</v>
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-1.61351</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>INE556F16AY0</t>
+          <t>INE002A01018</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SIDBI CD 13-Jan-2026</t>
+          <t>Reliance Industries Limited</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1611,115 +1791,24 @@
           <t>quant Multi Asset Allocation Fund</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>0</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E37" t="n">
-        <v>2.250632</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2.37337</v>
+        <v>0.148326</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.250632</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-2.37337</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>INE467B01029</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Tata Consultancy Services Limited</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>quant Multi Asset Allocation Fund</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>2.863599</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>-2.863599</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>INE237A01028</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Kotak Mahindra Bank Limited</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>quant Multi Asset Allocation Fund</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>8.523743</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-8.523743</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>INE002A01018</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Reliance Industries Limited</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>quant Multi Asset Allocation Fund</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.148326</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
         <v>-0.148326</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>

--- a/mf-intelligence/data/processed/quant/quant_Multi_Asset_Allocation_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Multi_Asset_Allocation_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Mutual Fund</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Oct_2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -493,27 +498,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>9.305626</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>8.382281000000001</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.9233449999999994</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>9.305626</v>
       </c>
     </row>
@@ -530,27 +540,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>9.26423</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>8.473186999999999</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.7910430000000002</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>9.26423</v>
       </c>
     </row>
@@ -567,29 +582,34 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>7.354324</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>7.354324</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>7.354324</v>
       </c>
+      <c r="J4" t="n">
+        <v>7.354324</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -604,27 +624,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>5.029332</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>5.541729</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>3.025798</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>-0.512397</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>2.003534</v>
       </c>
     </row>
@@ -641,27 +666,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>4.362969</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>4.973663</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>-0.6106940000000005</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>4.362969</v>
       </c>
     </row>
@@ -678,29 +708,34 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>4.315831</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>4.315831</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>4.315831</v>
       </c>
+      <c r="J7" t="n">
+        <v>4.315831</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -715,27 +750,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>Electrical Equipment</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>3.362745</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>4.225607</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>5.995882</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>-0.8628620000000002</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>-2.633137</v>
       </c>
     </row>
@@ -752,29 +792,34 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>2.966447</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2.966447</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>2.966447</v>
       </c>
+      <c r="J9" t="n">
+        <v>2.966447</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -789,27 +834,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>2.387782</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>2.724474</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>-0.3366919999999998</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>2.387782</v>
       </c>
     </row>
@@ -826,27 +876,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>2.231143</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>2.854445</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>-0.6233020000000002</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>2.231143</v>
       </c>
     </row>
@@ -863,27 +918,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>2.128037</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>1.476168</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0.651869</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>2.128037</v>
       </c>
     </row>
@@ -900,27 +960,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>Diversified FMCG</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>1.932332</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>2.59661</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>2.96051</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>-0.6642780000000001</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>-1.028178</v>
       </c>
     </row>
@@ -937,27 +1002,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>Ferrous Metals</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>1.552077</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.7772790000000001</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0.7747979999999999</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>1.552077</v>
       </c>
     </row>
@@ -974,27 +1044,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>IT - Services</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>1.530466</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>1.757758</v>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>-0.2272919999999998</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>1.530466</v>
       </c>
     </row>
@@ -1011,27 +1086,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>Telecom - Services</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>1.450806</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>0.780396</v>
       </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0.6704100000000001</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>1.450806</v>
       </c>
     </row>
@@ -1048,27 +1128,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>Automobiles</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>1.425685</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>0.732985</v>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0.6927000000000001</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>1.425685</v>
       </c>
     </row>
@@ -1085,27 +1170,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>Leisure Services</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>1.242275</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>1.364569</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>1.444665</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>-0.1222939999999999</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>-0.2023900000000001</v>
       </c>
     </row>
@@ -1122,27 +1212,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>1.070117</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>1.242889</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>1.494658</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>-0.1727719999999999</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>-0.4245410000000001</v>
       </c>
     </row>
@@ -1159,27 +1254,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>Diversified Metals</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.809566</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>0.771182</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0.03838399999999997</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>0.809566</v>
       </c>
     </row>
@@ -1196,27 +1296,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.755288</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>0.793538</v>
       </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>-0.03825000000000001</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>0.755288</v>
       </c>
     </row>
@@ -1233,27 +1338,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>Beverages</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.700078</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>0.781693</v>
       </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>-0.08161499999999999</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>0.700078</v>
       </c>
     </row>
@@ -1270,27 +1380,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>0.64877</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>0.748386</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>-0.09961600000000004</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>0.64877</v>
       </c>
     </row>
@@ -1307,27 +1422,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>0.644485</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>0.68784</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>0.711874</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>-0.04335500000000003</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>-0.06738900000000003</v>
       </c>
     </row>
@@ -1344,27 +1464,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>0.602641</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>0.822896</v>
       </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>-0.220255</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>0.602641</v>
       </c>
     </row>
@@ -1381,27 +1506,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>0.58982</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>0.689252</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>0.608492</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>-0.09943199999999996</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>-0.01867200000000002</v>
       </c>
     </row>
@@ -1418,27 +1548,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>0.541238</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>0.5997479999999999</v>
       </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>-0.05850999999999995</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>0.541238</v>
       </c>
     </row>
@@ -1455,27 +1590,32 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
         <v>8.523743</v>
       </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>-8.523743</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1492,27 +1632,32 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>0.58974</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>2.540473</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>-0.58974</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>-2.540473</v>
       </c>
     </row>
@@ -1529,27 +1674,32 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>N.A.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
         <v>0.809466</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>-0.809466</v>
       </c>
     </row>
@@ -1566,27 +1716,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
         <v>0.952275</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>-0.952275</v>
       </c>
     </row>
@@ -1603,27 +1758,32 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>Transport Infrastructure</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>2.595613</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
         <v>-2.595613</v>
       </c>
     </row>
@@ -1640,27 +1800,32 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
         <v>4.188516</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
         <v>-4.188516</v>
       </c>
     </row>
@@ -1677,27 +1842,32 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
         <v>3.345709</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>3.804074</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>-3.345709</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>-3.804074</v>
       </c>
     </row>
@@ -1714,27 +1884,32 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>9.18807</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>-9.18807</v>
       </c>
     </row>
@@ -1751,27 +1926,32 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>Diversified FMCG</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
         <v>1.61351</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
         <v>-1.61351</v>
       </c>
     </row>
@@ -1788,27 +1968,32 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>quant Multi Asset Allocation Fund</t>
+          <t>Petroleum Products</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>quant Multi Asset Allocation Fund</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
         <v>0.148326</v>
       </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>-0.148326</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>0</v>
       </c>
     </row>
